--- a/DATA/Link_ICD10_ICD8_long.xlsx
+++ b/DATA/Link_ICD10_ICD8_long.xlsx
@@ -41,9 +41,6 @@
     <t>Organic disorders</t>
   </si>
   <si>
-    <t>Substance abuse</t>
-  </si>
-  <si>
     <t>Schizophrenia and related</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Personality disorders</t>
   </si>
   <si>
-    <t>Mental retardation</t>
-  </si>
-  <si>
     <t>Developmental disorders</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>Childhood behavioral disorder not otherwise specified (F93 (except F93.0), F94, F98)</t>
+  </si>
+  <si>
+    <t>Substance use</t>
+  </si>
+  <si>
+    <t>Intellectual Disabilities</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -585,7 +587,7 @@
         <v>84813</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -596,7 +598,7 @@
         <v>84814</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,634 +609,634 @@
         <v>84815</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>70673</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>70674</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>70675</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>70676</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>70677</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>70678</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>70679</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>42015</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>42016</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>42017</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>42018</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>42019</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>42020</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>42021</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>153621</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>153622</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>153623</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>153624</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>153625</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>153626</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>205241</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>205242</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>205243</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>205244</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>205245</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>205246</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>205247</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>205248</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>205249</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>205250</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>205251</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>18614</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>18615</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>18616</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>56779</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>56780</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>56781</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>56782</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>56783</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>56784</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>56785</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>56786</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <v>56787</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>56788</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>56789</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>17579</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>17580</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>17581</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>17582</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B54">
         <v>17583</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>17584</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>30423</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>73239</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>73240</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>73241</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>73242</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>73243</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
